--- a/TrialCondition_A.xlsx
+++ b/TrialCondition_A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Downloads/Ratings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Ratings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C71C90E6-7B8A-0844-994C-17F6EE82DB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94095A1C-6CE3-1C4B-9B0F-F5FB2102B89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="520" windowWidth="18140" windowHeight="16340" xr2:uid="{208D6BFB-4808-EC4F-8AB4-F206A12E529C}"/>
+    <workbookView xWindow="10640" yWindow="520" windowWidth="18140" windowHeight="16340" xr2:uid="{208D6BFB-4808-EC4F-8AB4-F206A12E529C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Image</t>
   </si>
@@ -57,9 +57,6 @@
     <t>child</t>
   </si>
   <si>
-    <t>Position</t>
-  </si>
-  <si>
     <t>images/chld-M-ver3.jpg</t>
   </si>
   <si>
@@ -67,6 +64,66 @@
   </si>
   <si>
     <t>images/chld-F-ver3.jpg</t>
+  </si>
+  <si>
+    <t>images/adl-M-ver2.jpg</t>
+  </si>
+  <si>
+    <t>adolescent</t>
+  </si>
+  <si>
+    <t>images/adl-M-ver3.jpg</t>
+  </si>
+  <si>
+    <t>images/adl-F-ver5.jpg</t>
+  </si>
+  <si>
+    <t>images/adl-F-ver8.jpg</t>
+  </si>
+  <si>
+    <t>images/yA-M-ver5.jpg</t>
+  </si>
+  <si>
+    <t>youngadult</t>
+  </si>
+  <si>
+    <t>images/yA-M-ver7.jpg</t>
+  </si>
+  <si>
+    <t>images/yA-F-ver2.jpg</t>
+  </si>
+  <si>
+    <t>images/yA-F-ver5.jpg</t>
+  </si>
+  <si>
+    <t>images/midA-M-ver5.jpg</t>
+  </si>
+  <si>
+    <t>midadult</t>
+  </si>
+  <si>
+    <t>images/midA-M-ver6.jpg</t>
+  </si>
+  <si>
+    <t>images/midA-F-ver2.jpg</t>
+  </si>
+  <si>
+    <t>images/midA-F-ver3.jpg</t>
+  </si>
+  <si>
+    <t>images/sA-M-ver4.jpg</t>
+  </si>
+  <si>
+    <t>senioradult</t>
+  </si>
+  <si>
+    <t>images/sA-M-ver7.jpg</t>
+  </si>
+  <si>
+    <t>images/sA-F-ver1.jpg</t>
+  </si>
+  <si>
+    <t>images/sA-F-ver7.jpg</t>
   </si>
 </sst>
 </file>
@@ -426,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B28BB80-96B3-3644-A302-D1B1672E909D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,7 +494,7 @@
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,11 +504,8 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -461,13 +515,10 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -475,13 +526,10 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -489,13 +537,10 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -503,8 +548,181 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>-0.5</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/TrialCondition_A.xlsx
+++ b/TrialCondition_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Ratings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94095A1C-6CE3-1C4B-9B0F-F5FB2102B89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72BE157-214C-C94B-8131-EA27742DC2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="520" windowWidth="18140" windowHeight="16340" xr2:uid="{208D6BFB-4808-EC4F-8AB4-F206A12E529C}"/>
+    <workbookView xWindow="10640" yWindow="500" windowWidth="18140" windowHeight="16300" xr2:uid="{208D6BFB-4808-EC4F-8AB4-F206A12E529C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Image</t>
   </si>
@@ -64,66 +64,6 @@
   </si>
   <si>
     <t>images/chld-F-ver3.jpg</t>
-  </si>
-  <si>
-    <t>images/adl-M-ver2.jpg</t>
-  </si>
-  <si>
-    <t>adolescent</t>
-  </si>
-  <si>
-    <t>images/adl-M-ver3.jpg</t>
-  </si>
-  <si>
-    <t>images/adl-F-ver5.jpg</t>
-  </si>
-  <si>
-    <t>images/adl-F-ver8.jpg</t>
-  </si>
-  <si>
-    <t>images/yA-M-ver5.jpg</t>
-  </si>
-  <si>
-    <t>youngadult</t>
-  </si>
-  <si>
-    <t>images/yA-M-ver7.jpg</t>
-  </si>
-  <si>
-    <t>images/yA-F-ver2.jpg</t>
-  </si>
-  <si>
-    <t>images/yA-F-ver5.jpg</t>
-  </si>
-  <si>
-    <t>images/midA-M-ver5.jpg</t>
-  </si>
-  <si>
-    <t>midadult</t>
-  </si>
-  <si>
-    <t>images/midA-M-ver6.jpg</t>
-  </si>
-  <si>
-    <t>images/midA-F-ver2.jpg</t>
-  </si>
-  <si>
-    <t>images/midA-F-ver3.jpg</t>
-  </si>
-  <si>
-    <t>images/sA-M-ver4.jpg</t>
-  </si>
-  <si>
-    <t>senioradult</t>
-  </si>
-  <si>
-    <t>images/sA-M-ver7.jpg</t>
-  </si>
-  <si>
-    <t>images/sA-F-ver1.jpg</t>
-  </si>
-  <si>
-    <t>images/sA-F-ver7.jpg</t>
   </si>
 </sst>
 </file>
@@ -483,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B28BB80-96B3-3644-A302-D1B1672E909D}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A6" sqref="A6:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,181 +489,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TrialCondition_A.xlsx
+++ b/TrialCondition_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Ratings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72BE157-214C-C94B-8131-EA27742DC2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127DEF04-F007-454C-8895-3F2D048E90D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="500" windowWidth="18140" windowHeight="16300" xr2:uid="{208D6BFB-4808-EC4F-8AB4-F206A12E529C}"/>
+    <workbookView xWindow="10640" yWindow="500" windowWidth="18140" windowHeight="16180" xr2:uid="{208D6BFB-4808-EC4F-8AB4-F206A12E529C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>AgeGroup</t>
   </si>
   <si>
-    <t>images/chld-M-ver2.jpg</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -57,13 +54,16 @@
     <t>child</t>
   </si>
   <si>
-    <t>images/chld-M-ver3.jpg</t>
-  </si>
-  <si>
-    <t>images/chld-F-ver2.jpg</t>
-  </si>
-  <si>
-    <t>images/chld-F-ver3.jpg</t>
+    <t>Images/chld-M-ver2.jpg</t>
+  </si>
+  <si>
+    <t>Images/chld-M-ver3.jpg</t>
+  </si>
+  <si>
+    <t>Images/chld-F-ver2.jpg</t>
+  </si>
+  <si>
+    <t>Images/chld-F-ver3.jpg</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -447,13 +447,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -461,10 +461,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -472,10 +472,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -483,10 +483,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
